--- a/inst/extdata/tl_250nm_150nm_geo.xlsx
+++ b/inst/extdata/tl_250nm_150nm_geo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrminter\Documents\git\rpemepma\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F1379E-3B51-42B1-98B8-9BC10E6165D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4E15F-F9D1-4C0E-B210-E460B8D524EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23235" windowHeight="8115" xr2:uid="{0CE2AD0F-7B09-4789-A3D5-AA0AFDB96728}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
